--- a/LIBA14/files/Q13A.xlsx
+++ b/LIBA14/files/Q13A.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF9721D-222A-4B98-8BBF-BC22D73ACD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{176007EF-87E5-45D1-B33C-789E8D870925}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="3276" xr2:uid="{469CAD70-6232-42A3-A3C7-28B6F06C118C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -328,7 +333,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -340,7 +345,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -387,6 +392,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -422,6 +444,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,7 +612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B589A9D9-50B9-4E28-8150-56765661304C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
